--- a/ExcelDataAnalysis/total.xlsx
+++ b/ExcelDataAnalysis/total.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -46,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,7 +417,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>丁小永
+          <t>江坚
 101145
 13641499424</t>
         </is>
@@ -442,7 +442,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>丁小永
+          <t>邱大发
 101145
 13641499424</t>
         </is>
@@ -487,7 +487,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>丁小永
+          <t>邓伟
 101145
 13641499424</t>
         </is>
@@ -532,7 +532,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -552,36 +552,936 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>高国栋
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>丁小永
 101145
 13641499424</t>
         </is>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="E6" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>季志昌
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>高国栋
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>丁小永
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>丁小永
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>江坚
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>邓伟
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>高国栋
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>邱大发
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>季志昌
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>邓伟
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>季志昌
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>高国栋
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>丁小永
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>江坚
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>丁小永
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>季志昌
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>高国栋
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>邓伟
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>邱大发
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ExcelDataAnalysis/total.xlsx
+++ b/ExcelDataAnalysis/total.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="12405" windowHeight="11940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="total" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="total" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp_feedbacker" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp_feedbacker1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp_feedbacker2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,17 +55,921 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>反馈人</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>姓名</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>次数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>反馈人</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>姓名</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>次数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>反馈人</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>#REF!</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>姓名</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>次数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>反馈人</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'temp_feedbacker'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'temp_feedbacker'!$A$2:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'temp_feedbacker'!$B$2:$B$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>姓名</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>次数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>反馈人</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'temp_feedbacker1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'temp_feedbacker1'!$A$2:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'temp_feedbacker1'!$B$2:$B$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>姓名</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>次数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>反馈人</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'temp_feedbacker2'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'temp_feedbacker2'!$A$2:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'temp_feedbacker2'!$B$2:$B$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>姓名</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>次数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,7 +1261,658 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="54" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>丁小永1
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="54" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>丁小永2
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="54" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>丁小永2
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="54" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>丁小永2
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="54" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>丁小永3
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="54" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>丁小永4
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="54" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>丁小永4
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="54" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>丁小永5
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="54" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>丁小永6
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>43958</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>jielink2.5.1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="54" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>丁小永7
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>43959</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>jielink2.5.2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="54" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>丁小永8
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>43960</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>jielink2.5.3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="54" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>丁小永8
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>43961</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>jielink2.5.4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="54" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>丁小永9
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>43962</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>jielink2.5.5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="54" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>邓伟</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>丁小永7
+101145
+13641499424</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>43963</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>jielink2.5.6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -359,229 +1923,348 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>邓伟</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>次数</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>邓伟</t>
+          <t>丁小永2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>邓伟</t>
+          <t>丁小永4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>邓伟</t>
+          <t>丁小永7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>邓伟</t>
+          <t>丁小永8</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>丁小永1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>丁小永3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>丁小永5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>丁小永6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>丁小永9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>次数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>丁小永2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>丁小永4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>丁小永7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>丁小永8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>丁小永1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>丁小永3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>丁小永5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>丁小永6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>丁小永9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>次数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>丁小永2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>丁小永4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>丁小永7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>丁小永8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>丁小永1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>丁小永3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>丁小永5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>丁小永6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>丁小永9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ExcelDataAnalysis/total.xlsx
+++ b/ExcelDataAnalysis/total.xlsx
@@ -4,39 +4,377 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9870" windowWidth="21000"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="wordcloud" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
   </numFmts>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="21">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -44,19 +382,371 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="5" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3429000" cy="3429000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3429000" cy="3429000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,7 +1028,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -350,238 +1039,267 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col customWidth="1" max="7" min="7" width="44.0909090909091"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="409.5" r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>刘德华</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>张学友
+101145
+13846488454</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">支付不开闸重阳节，是中国民间的传统节日，节期在每年的农历九月初九日。重阳节源自天象崇拜，由上古时代季秋丰收祭祀演变而来。“九”数在《易经》中为阳数，“九九”两阳数相重，故曰“重阳”；因日与月皆逢九，故又称为“重九”。九九归真，一元肇始，古人认为九九重阳是吉祥的日子。古时民间在重阳节有登高祈福、秋游赏菊、佩插茱萸、拜神祭祖及饮宴祈寿等习俗。传承至今，又添加了敬老等内涵，于重阳之日享宴高会，感恩敬老。登高赏秋与感恩敬老是当今重阳节日活动的两大重要主题。 [1-5] 
+据现存史料及考证， 重阳节的源头，可追溯到上古时代，古时有在季秋举行丰收祭天、祭祖等活动。《吕氏春秋·季秋纪》中收录，古人在九月农作物丰收之时祭天帝、祭祖，以谢天帝、祖先恩德的活动。这是重阳节作为秋季丰收祭祀活动而存在的原始形式。重阳节起始于上古，普及于西汉，鼎盛于唐代以后。唐代是传统节日习俗揉合定型的重要时期，其主体部分传承至今。重阳祭祖民俗相沿数千年，是具有深刻意义的一个古老民俗。重阳节与除夕、清明节、七月半并称中国传统四大祭祖节日。 [4-8] 
+重阳节在历史发展演变中杂糅多种民俗为一体，承载了丰富的文化内涵。在民俗观念中“九”在数字中是最大数，有长久长寿的含意，寄托着人们对老人健康长寿的祝福。1989年，农历九月九日被定为“敬老节”，倡导全社会树立尊老、敬老、爱老、助老的风气。2006年5月20日，重阳节被国务院列入首批国家级非物质文化遗产名录。 [1]  </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>刘德华</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>张学友
+101145
+13846488454</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>刘德华</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>张学友
+101145
+13846488454</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>刘德华</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>张学友
+101145
+13846488454</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>刘德华</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>张学友
+101145
+13846488454</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jielink2.5.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>支付不开闸</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="4" min="4" width="12.25"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>邓伟</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>邓伟</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>邓伟</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>邓伟</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>邓伟</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>项目名称</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>丁小永
-101145
-13641499424</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>jielink2.5.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>支付不开闸</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>处理结果</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
+    <row customHeight="1" ht="80.09999999999999" r="3"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>